--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1288158.3552224</v>
+        <v>1284145.745208408</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>77.42639794035721</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>147.0290144562267</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -873,19 +873,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>103.3642763035227</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>174.476969586969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>79.76470074482877</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>52.03044600306154</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>155.0654695336213</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>369.7993116432511</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>274.3393327866113</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>220.2858449881291</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>74.54864828286998</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.27859867330056</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>121.6381820844804</v>
       </c>
     </row>
     <row r="14">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.16086499484859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>80.10107535865887</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>80.56978887874854</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>20.88994825141626</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.29550035394</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>14.53306611597401</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216692</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>108.9065924712593</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>11.79076481679262</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>74.99129529219145</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3432,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3963959210078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3711,25 +3711,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>217.0250037474722</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890417</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3957,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>177.1006680594871</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>9.570729811036321</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>100.5858322992699</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>172.0260335000785</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,7 +4330,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3177.09166559278</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3177.09166559278</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>3177.09166559278</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W2" t="n">
-        <v>2824.323010322666</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686077</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2175.332169839294</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>2006.395986911387</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>1856.279347499051</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>1708.366253916658</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1708.366253916658</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193525</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.322864763051</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>2533.219997888694</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>2533.219997888694</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W4" t="n">
-        <v>2533.219997888694</v>
+        <v>1319.603231339825</v>
       </c>
       <c r="X4" t="n">
-        <v>2533.219997888694</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="Y4" t="n">
-        <v>2356.980634669534</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2703.250922730625</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2350.482267460511</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1977.016509199431</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.016509199431</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>470.5862204338721</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>313.9544330261738</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621292</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621292</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>652.2346852641118</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>652.2346852641118</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.795585684488</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>790.6593199240531</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>790.6593199240531</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,19 +4804,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2048.39542574861</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>2048.39542574861</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1704.783593555029</v>
       </c>
       <c r="V10" t="n">
-        <v>1615.697475415547</v>
+        <v>1450.099105349142</v>
       </c>
       <c r="W10" t="n">
-        <v>1540.395810483355</v>
+        <v>1160.681935312181</v>
       </c>
       <c r="X10" t="n">
-        <v>1312.406259585337</v>
+        <v>932.6923844141637</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>711.8998052706336</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>251.562654109227</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>680.448174698413</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="14">
@@ -5275,7 +5275,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5284,13 +5284,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>341.9229394630504</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.284195611858</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="17">
@@ -5497,25 +5497,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5527,22 +5527,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084667</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>3210.485548300426</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3807.864035926978</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>4033.948342528643</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,55 +5649,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>286.0962634073653</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>118.9001641222453</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
@@ -5706,19 +5706,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015259</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5767,25 +5767,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="E22" t="n">
-        <v>197.0043242297717</v>
+        <v>492.0395788753862</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>345.1496313774758</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>177.9535320923557</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5998,40 +5998,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3275.130390493383</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>3106.194207565477</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>2956.077568153141</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E25" t="n">
-        <v>2808.164474570748</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F25" t="n">
-        <v>2661.274527072837</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G25" t="n">
-        <v>2494.078427787717</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H25" t="n">
-        <v>2352.366596629915</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305901</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328842</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.25592267304</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467153</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>3677.571434467153</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>3677.571434467153</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>3456.778855323623</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6220,49 +6220,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6411,25 +6411,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6487,28 +6487,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="35">
@@ -6931,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,28 +7195,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3160.164713532169</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>2991.228530604262</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>2841.111891191926</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>2693.198797609533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>2693.198797609533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305899</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.33114932884</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673038</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467151</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430191</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532169</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>3160.164713532169</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7405,25 +7405,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,31 +7432,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7605,16 +7605,16 @@
         <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.987318831765</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7648,13 +7648,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.55866301478</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7836,22 +7836,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2273.199413378161</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98.55338150863673</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>96.94647126761437</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>134.6711151870887</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>65.31997266427237</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>115.4620467826932</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>145.1398665102886</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>124.531099771515</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>56.99921249228389</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>66.73277020259151</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>32.89260457059964</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>72.11969353038532</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>213.9188905722445</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>142.4141550350968</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.6085800303822</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>35.12774237126106</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>35.1126395763558</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>109.4223302771039</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>216.1389255780008</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>45.37941682720972</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>940417.4689437535</v>
+        <v>940417.4689437536</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>940417.4689437535</v>
+        <v>940417.4689437534</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>940417.4689437535</v>
+        <v>940417.4689437534</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>940417.4689437534</v>
+        <v>940417.4689437536</v>
       </c>
     </row>
     <row r="15">
@@ -26319,10 +26319,10 @@
         <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140036</v>
@@ -26337,10 +26337,10 @@
         <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
@@ -26352,10 +26352,10 @@
         <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26371,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551165</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>92183.89891818173</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181818</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
         <v>92183.89891818175</v>
@@ -26527,43 +26527,43 @@
         <v>292507.222438995</v>
       </c>
       <c r="D6" t="n">
-        <v>292507.2224389948</v>
+        <v>292507.2224389953</v>
       </c>
       <c r="E6" t="n">
-        <v>44756.1040359109</v>
+        <v>44408.72478155392</v>
       </c>
       <c r="F6" t="n">
-        <v>370168.565843266</v>
+        <v>369821.1865889091</v>
       </c>
       <c r="G6" t="n">
-        <v>370168.5658432659</v>
+        <v>369821.1865889091</v>
       </c>
       <c r="H6" t="n">
-        <v>370168.565843266</v>
+        <v>369821.1865889091</v>
       </c>
       <c r="I6" t="n">
-        <v>370168.565843266</v>
+        <v>369821.1865889088</v>
       </c>
       <c r="J6" t="n">
-        <v>152637.3634459888</v>
+        <v>152289.9841916317</v>
       </c>
       <c r="K6" t="n">
-        <v>370168.5658432661</v>
+        <v>369821.186588909</v>
       </c>
       <c r="L6" t="n">
-        <v>370168.565843266</v>
+        <v>369821.1865889092</v>
       </c>
       <c r="M6" t="n">
-        <v>285113.5379077543</v>
+        <v>284766.1586533973</v>
       </c>
       <c r="N6" t="n">
-        <v>370168.5658432661</v>
+        <v>369821.1865889091</v>
       </c>
       <c r="O6" t="n">
-        <v>370168.5658432661</v>
+        <v>369821.186588909</v>
       </c>
       <c r="P6" t="n">
-        <v>370168.5658432661</v>
+        <v>369821.186588909</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,19 +26804,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26965,22 +26965,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483757</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>277.2566436803257</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>56.88895568339342</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>183.1587220330683</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>44.10768376512578</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>274.9183408758542</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>275.7218124670734</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>12.18135156500651</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>37.07673409846035</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>95.39176789185774</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>65.92599321748378</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>211.974350053721</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30152,7 +30152,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-2.355346330481042e-12</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30446,7 +30446,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>-2.920938348146081e-12</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>146.0225991093089</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,31 +32074,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496621</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,13 +32785,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33028,28 +33028,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33259,10 +33259,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422586</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>577.7447198439381</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>8.181160134949948</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663288</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>439.190340064064</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1284145.745208408</v>
+        <v>1285906.275511193</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283203</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10920280.99154175</v>
+        <v>10920280.99154174</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>77.42639794035721</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>239.9164930890886</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>13.02719212039671</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>103.3642763035227</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>79.76470074482877</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>111.4702381038701</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>369.7993116432511</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>58.9280504799215</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>220.2858449881291</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>186.8176706595559</v>
       </c>
       <c r="Y13" t="n">
-        <v>121.6381820844804</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>80.10107535865887</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>158.3910158645298</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>147.0792452528012</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>24.83266606353065</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089668</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.29550035394</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833204</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>9.146142788179874</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="G28" t="n">
-        <v>132.6315337216692</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>74.99129529219145</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3432,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8253826161909023</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>141.383131826302</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>217.0250037474722</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3793,10 +3793,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>9.570729811036321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>100.5858322992699</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2065.110222835252</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C2" t="n">
-        <v>1696.14770589484</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4348,10 +4348,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4363,19 +4363,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X2" t="n">
-        <v>2841.849394875186</v>
+        <v>2588.318918149023</v>
       </c>
       <c r="Y2" t="n">
-        <v>2451.710062899374</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>838.5106002518386</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>688.3939608395028</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>540.4808672571097</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>393.5909197591993</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>225.8880831339183</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>79.67089635177607</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1319.603231339825</v>
+        <v>1637.877378051533</v>
       </c>
       <c r="X4" t="n">
-        <v>1091.613680441807</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y4" t="n">
-        <v>1091.613680441807</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="C5" t="n">
-        <v>1698.509627919559</v>
+        <v>1703.012869240228</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1344.747170633478</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4716,13 +4716,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1517.887535471215</v>
+        <v>2065.110222835253</v>
       </c>
       <c r="C8" t="n">
-        <v>1148.925018530804</v>
+        <v>1696.147705894841</v>
       </c>
       <c r="D8" t="n">
-        <v>790.6593199240531</v>
+        <v>1337.882007288091</v>
       </c>
       <c r="E8" t="n">
-        <v>790.6593199240531</v>
+        <v>952.0937546898465</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>541.107849900239</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>126.0353997452355</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,13 +4819,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y8" t="n">
-        <v>1904.487375535337</v>
+        <v>2451.710062899375</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.2513404403938</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>361.3151575124869</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1704.783593555029</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1450.099105349142</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1160.681935312181</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>932.6923844141637</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>711.8998052706336</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,19 +5114,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
         <v>1373.553594266881</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>866.4638174991042</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>697.5276345711973</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1048.112282329344</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5272,28 +5272,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>808.8888553856862</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>639.9526724577793</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>489.8360330454435</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>341.9229394630504</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5478,10 +5478,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.5373202159259</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876688</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D19" t="n">
-        <v>580.8993044876688</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E19" t="n">
-        <v>432.9862109052757</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>286.0962634073653</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>118.9001641222453</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5709,16 +5709,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="20">
@@ -5743,43 +5743,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>808.8888553856862</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>639.9526724577793</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>639.9526724577793</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>492.0395788753862</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>345.1496313774758</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G22" t="n">
-        <v>177.9535320923557</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5952,10 +5952,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359456</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.5373202159259</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6007,34 +6007,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746423</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>103.0551911168404</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6220,7 +6220,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192548</v>
@@ -6229,25 +6229,25 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,7 +6262,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,10 +6317,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098242</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819173</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695815</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3896878871884</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>369.499740389278</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924459</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718572</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783594</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640064</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7128,19 +7128,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>277.5052172074016</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>38.89198472948124</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.94647126761437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>65.31997266427237</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>67.31863952450738</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>32.75273492913607</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>115.4620467826932</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>56.99921249228389</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489197</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.11969353038565</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>136.2749052347518</v>
       </c>
       <c r="G28" t="n">
-        <v>32.89260457059964</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>142.4141550350968</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.6085800303822</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>144.8013425629422</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>35.1126395763558</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>216.1389255780008</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>940417.4689437534</v>
+        <v>940417.4689437535</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>940417.4689437535</v>
+        <v>940417.4689437533</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>940417.4689437535</v>
+        <v>940417.4689437533</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>940417.4689437536</v>
+        <v>940417.4689437534</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>940417.4689437534</v>
+        <v>940417.4689437535</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>940417.4689437534</v>
+        <v>940417.4689437535</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>940417.4689437534</v>
+        <v>940417.4689437535</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>940417.4689437536</v>
+        <v>940417.4689437534</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>940417.4689437536</v>
+        <v>940417.4689437534</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>940417.4689437536</v>
+        <v>940417.4689437534</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185701</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.0619185701</v>
-      </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
         <v>484287.9598140037</v>
@@ -26334,7 +26334,7 @@
         <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
@@ -26346,16 +26346,16 @@
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26524,46 +26524,46 @@
         <v>-1036237.523288598</v>
       </c>
       <c r="C6" t="n">
-        <v>292507.222438995</v>
+        <v>292507.2224389953</v>
       </c>
       <c r="D6" t="n">
-        <v>292507.2224389953</v>
+        <v>292507.2224389949</v>
       </c>
       <c r="E6" t="n">
-        <v>44408.72478155392</v>
+        <v>44721.36611047538</v>
       </c>
       <c r="F6" t="n">
-        <v>369821.1865889091</v>
+        <v>370133.8279178305</v>
       </c>
       <c r="G6" t="n">
-        <v>369821.1865889091</v>
+        <v>370133.8279178303</v>
       </c>
       <c r="H6" t="n">
-        <v>369821.1865889091</v>
+        <v>370133.8279178303</v>
       </c>
       <c r="I6" t="n">
-        <v>369821.1865889088</v>
+        <v>370133.8279178303</v>
       </c>
       <c r="J6" t="n">
-        <v>152289.9841916317</v>
+        <v>152602.6255205528</v>
       </c>
       <c r="K6" t="n">
-        <v>369821.186588909</v>
+        <v>370133.8279178302</v>
       </c>
       <c r="L6" t="n">
-        <v>369821.1865889092</v>
+        <v>370133.8279178303</v>
       </c>
       <c r="M6" t="n">
-        <v>284766.1586533973</v>
+        <v>285078.7999823184</v>
       </c>
       <c r="N6" t="n">
-        <v>369821.1865889091</v>
+        <v>370133.8279178303</v>
       </c>
       <c r="O6" t="n">
-        <v>369821.186588909</v>
+        <v>370133.8279178304</v>
       </c>
       <c r="P6" t="n">
-        <v>369821.186588909</v>
+        <v>370133.8279178304</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>277.2566436803257</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>146.321445566965</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>83.32522828944138</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>183.1587220330683</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>274.9183408758542</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>270.4601319683917</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>37.07673409846035</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>235.679713907399</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>65.92599321748378</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30152,7 +30152,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-2.355346330481042e-12</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,13 +31843,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,28 +32074,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,46 +32861,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34368,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
